--- a/General/DDatos.xlsx
+++ b/General/DDatos.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A932685-4915-473B-B1EB-49BFC506250E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B7744-7043-40D0-AA96-DAD78038FEDD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{7669FBE5-848B-4C5A-AF66-83212406F21E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{7669FBE5-848B-4C5A-AF66-83212406F21E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Quincena" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -688,6 +688,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -700,44 +718,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,26 +1147,26 @@
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1178,11 +1178,11 @@
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1251,7 +1251,7 @@
       <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="15"/>
@@ -1262,18 +1262,18 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
@@ -1285,11 +1285,11 @@
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -1300,12 +1300,12 @@
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1358,7 +1358,7 @@
       <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="15"/>
@@ -1366,18 +1366,18 @@
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
@@ -1389,11 +1389,11 @@
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -1404,12 +1404,12 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -1462,7 +1462,7 @@
       <c r="D48" s="16"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="15"/>
@@ -1470,29 +1470,29 @@
       <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
@@ -1561,7 +1561,7 @@
       <c r="D62" s="16"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B63" s="15"/>
@@ -1569,29 +1569,29 @@
       <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -1660,7 +1660,7 @@
       <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="15"/>
@@ -1668,29 +1668,29 @@
       <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="24"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
@@ -1759,7 +1759,7 @@
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B90" s="15"/>
@@ -1767,39 +1767,38 @@
       <c r="D90" s="16"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B4:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D22"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="B30:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="B84:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="B70:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:D81"/>
     <mergeCell ref="B57:D62"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B40:D40"/>
@@ -1812,23 +1811,24 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="B70:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="B84:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B30:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D22"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B4:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
